--- a/build/classes/selenium/UserPagetTestCase9.xlsx
+++ b/build/classes/selenium/UserPagetTestCase9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\event_catering_management\test\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CDDE2-CB53-4B0C-8D13-45C06F0B456C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D0B0AD-AEAF-4426-9E47-CC15F923F15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,9 @@
     <t>American</t>
   </si>
   <si>
-    <t>Lunch</t>
-  </si>
-  <si>
     <t>Formal</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
     <t>Shah</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>Alcohol</t>
+  </si>
+  <si>
+    <t>Fomal</t>
+  </si>
+  <si>
+    <t>Non-Music</t>
   </si>
 </sst>
 </file>
@@ -377,10 +377,14 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -390,13 +394,13 @@
         <v>113</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="2">
         <v>0.55486111111111114</v>
@@ -417,16 +421,16 @@
         <v>2</v>
       </c>
       <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
       <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
         <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
